--- a/docs/StructureDefinition-LTCCondition.xlsx
+++ b/docs/StructureDefinition-LTCCondition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="410">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:20:15+08:00</t>
+    <t>2024-10-22T01:35:37+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -416,13 +416,13 @@
 </t>
   </si>
   <si>
-    <t>內嵌的（contained）、行內的Resources</t>
-  </si>
-  <si>
-    <t>這些resource內嵌（contains）的resource不會另外存於任何FHIR伺服器，意即它們無法在任何FHIR伺服器中被找到，也無法有自己獨立的資料異動／交易（transaction）範圍。</t>
-  </si>
-  <si>
-    <t>當內容可以從任何FHIR伺服器找到時，不應該以內嵌（contained）resource的方式呈現，因為一旦失去識別，再次恢復它是非常困難的（並且取決於情境）。內嵌（contained）的resource可在它們的meta資料項目中表述profiles和tag，但不應該有安全標號（security labels）。</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -432,19 +432,23 @@
   </si>
   <si>
     <t>Condition.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>擴充的資料項目</t>
-  </si>
-  <si>
-    <t>可用於表示不屬於此resource基本定義的額外資訊。為了擴充的使用安全和可管理，對擴充的定義和使用有一套嚴格的管理。儘管任何實作者都可以定義一個擴充，但作為擴充定義的一部分，**必須（SHALL）** 滿足一系列要求。</t>
-  </si>
-  <si>
-    <t>任何應用程式、專案或標準使用擴充時，都不應該帶有任何負面的聯想。使用擴充是允許FHIR規範為每個人保留一個核心的簡易性。</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -457,14 +461,14 @@
     <t>Condition.modifierExtension</t>
   </si>
   <si>
-    <t>此擴充的資料項目可能會完全修正或改變其他資料項目的意涵，需特別留意。</t>
-  </si>
-  <si>
-    <t>可以用來表示不屬於此resource的基本定義的額外資訊，並修改包含它所內嵌（contained）的資料項目的理解和/或對包含資料項目之後續使用的理解。通常修飾用的資料項目提供否定或限定的資訊。為了使擴充的使用安全和可管理，對擴充的定義和使用有一套嚴格的管理。雖然任何實作者都可以定義一個擴充，但在定義擴充時 **必須（SHALL）** 滿足一組要求。處理resource的應用程式需要檢查修飾用的擴充資料項目。  
-修飾用的擴充資料項目 **必須沒有（SHALL NOT）** 改變resource或DomainResource上任何資料項目的含義（包括不能改變modifierExtension本身的含義）。</t>
-  </si>
-  <si>
-    <t>修飾用的資料項目擴充允許將不能安全地忽略的擴充，與絕大多數可以安全地忽略的擴充明確區分開來。這樣做有助於促進可互操作性，因為無需禁止實作者使用擴充，想要瞭解更多資訊，請參見[修飾用的資料項目擴充之定義]（http://hl7.org/fhir/R4/extensibility.html#modifierExtension）。</t>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -634,6 +638,9 @@
     <t>Condition.code.extension</t>
   </si>
   <si>
+    <t>擴充的資料項目</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -679,6 +686,27 @@
     <t>CV</t>
   </si>
   <si>
+    <t>Condition.code.coding:icd10-cm-2023</t>
+  </si>
+  <si>
+    <t>icd10-cm-2023</t>
+  </si>
+  <si>
+    <t>由專門術語系統（terminology system）定義的代碼</t>
+  </si>
+  <si>
+    <t>由專門術語系統（terminology system）所定義之代碼的參照</t>
+  </si>
+  <si>
+    <t>代碼可以在列舉清單（enumerations）或代碼清單（code lists）中非常隨意地定義，直至有非常正式的定義，例如：SNOMED CT—更多資訊見HL7 v3核心原則（Core Principles ）。編碼的排序是未定義的因而 **必須沒有（SHALL NOT）** 被用來推斷意義。一般來說，最多只有一個編碼值（coding values）會被標記為UserSelected = true。</t>
+  </si>
+  <si>
+    <t>允許代碼系統中的替代編碼，以及翻譯到其他編碼系統。</t>
+  </si>
+  <si>
+    <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/icd-10-cm-2023-tw</t>
+  </si>
+  <si>
     <t>Condition.code.coding:icd10-cm-2021</t>
   </si>
   <si>
@@ -710,18 +738,6 @@
   </si>
   <si>
     <t>icd9-cm-2001</t>
-  </si>
-  <si>
-    <t>由專門術語系統（terminology system）定義的代碼</t>
-  </si>
-  <si>
-    <t>由專門術語系統（terminology system）所定義之代碼的參照</t>
-  </si>
-  <si>
-    <t>代碼可以在列舉清單（enumerations）或代碼清單（code lists）中非常隨意地定義，直至有非常正式的定義，例如：SNOMED CT—更多資訊見HL7 v3核心原則（Core Principles ）。編碼的排序是未定義的因而 **必須沒有（SHALL NOT）** 被用來推斷意義。一般來說，最多只有一個編碼值（coding values）會被標記為UserSelected = true。</t>
-  </si>
-  <si>
-    <t>允許代碼系統中的替代編碼，以及翻譯到其他編碼系統。</t>
   </si>
   <si>
     <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/icd-9-cm-2001-tw</t>
@@ -840,17 +856,7 @@
     <t>Condition.subject.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Condition.subject.reference</t>
@@ -1147,9 +1153,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1607,7 +1610,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO65"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2607,7 +2610,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2626,16 +2629,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2685,7 +2688,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2697,7 +2700,7 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -2709,7 +2712,7 @@
         <v>20</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>20</v>
@@ -2717,14 +2720,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2743,19 +2746,19 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2804,7 +2807,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2816,7 +2819,7 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -2828,7 +2831,7 @@
         <v>20</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>20</v>
@@ -2836,10 +2839,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2862,19 +2865,19 @@
         <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2923,7 +2926,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2938,7 +2941,7 @@
         <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>20</v>
@@ -2947,18 +2950,18 @@
         <v>20</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2981,16 +2984,16 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3016,13 +3019,13 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -3040,7 +3043,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3049,7 +3052,7 @@
         <v>89</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>101</v>
@@ -3061,10 +3064,10 @@
         <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>20</v>
@@ -3072,10 +3075,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3098,16 +3101,16 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3133,13 +3136,13 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>20</v>
@@ -3157,7 +3160,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3166,7 +3169,7 @@
         <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>101</v>
@@ -3178,10 +3181,10 @@
         <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>20</v>
@@ -3189,10 +3192,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3215,16 +3218,16 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3250,13 +3253,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3274,7 +3277,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3283,7 +3286,7 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>101</v>
@@ -3295,10 +3298,10 @@
         <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>20</v>
@@ -3306,10 +3309,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3332,16 +3335,16 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3367,13 +3370,13 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -3391,7 +3394,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3400,7 +3403,7 @@
         <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>101</v>
@@ -3412,10 +3415,10 @@
         <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>20</v>
@@ -3423,14 +3426,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3449,19 +3452,19 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3486,13 +3489,13 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -3510,7 +3513,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3519,7 +3522,7 @@
         <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>101</v>
@@ -3531,10 +3534,10 @@
         <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>20</v>
@@ -3542,10 +3545,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3568,13 +3571,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3625,7 +3628,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3649,7 +3652,7 @@
         <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>20</v>
@@ -3657,10 +3660,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3683,13 +3686,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3728,19 +3731,19 @@
         <v>20</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3752,7 +3755,7 @@
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>20</v>
@@ -3772,10 +3775,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3798,19 +3801,19 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3847,17 +3850,17 @@
         <v>20</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3866,7 +3869,7 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>101</v>
@@ -3878,10 +3881,10 @@
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>20</v>
@@ -3889,13 +3892,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>20</v>
@@ -3917,19 +3920,19 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3954,13 +3957,11 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -3978,7 +3979,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3987,7 +3988,7 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>101</v>
@@ -3999,10 +4000,10 @@
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>20</v>
@@ -4010,13 +4011,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>20</v>
@@ -4038,19 +4039,19 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4075,13 +4076,13 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -4099,7 +4100,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4108,7 +4109,7 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>101</v>
@@ -4120,10 +4121,10 @@
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>20</v>
@@ -4131,13 +4132,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>20</v>
@@ -4159,19 +4160,19 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4196,11 +4197,13 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -4218,7 +4221,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4227,7 +4230,7 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>101</v>
@@ -4239,10 +4242,10 @@
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>20</v>
@@ -4250,13 +4253,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>20</v>
@@ -4278,19 +4281,19 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4315,11 +4318,9 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y23" t="s" s="2">
         <v>161</v>
       </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
         <v>233</v>
       </c>
@@ -4339,7 +4340,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4348,7 +4349,7 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>101</v>
@@ -4360,10 +4361,10 @@
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>20</v>
@@ -4374,7 +4375,7 @@
         <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>235</v>
@@ -4399,19 +4400,19 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4436,13 +4437,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4460,7 +4461,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4469,7 +4470,7 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>101</v>
@@ -4481,10 +4482,10 @@
         <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
@@ -4492,12 +4493,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4515,22 +4518,22 @@
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4555,13 +4558,13 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4579,16 +4582,16 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>101</v>
@@ -4600,10 +4603,10 @@
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
@@ -4611,10 +4614,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4625,7 +4628,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>90</v>
@@ -4634,21 +4637,23 @@
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4672,13 +4677,13 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -4696,16 +4701,16 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>101</v>
@@ -4717,10 +4722,10 @@
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -4728,21 +4733,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>90</v>
@@ -4751,21 +4756,21 @@
         <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>20</v>
       </c>
@@ -4789,13 +4794,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4813,74 +4818,76 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>165</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>261</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
@@ -4928,10 +4935,10 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>89</v>
@@ -4940,41 +4947,41 @@
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>197</v>
+        <v>265</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>20</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -4986,17 +4993,15 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N29" t="s" s="2">
         <v>269</v>
       </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5033,31 +5038,31 @@
         <v>20</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
@@ -5069,7 +5074,7 @@
         <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -5084,35 +5089,35 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="N30" t="s" s="2">
-        <v>273</v>
+        <v>139</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5150,31 +5155,31 @@
         <v>20</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>204</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
@@ -5186,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -5194,10 +5199,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5205,13 +5210,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
@@ -5220,16 +5225,16 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5255,13 +5260,13 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5279,7 +5284,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5288,7 +5293,7 @@
         <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>20</v>
+        <v>277</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>101</v>
@@ -5311,10 +5316,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5337,16 +5342,16 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5372,13 +5377,13 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5396,7 +5401,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5420,7 +5425,7 @@
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>288</v>
+        <v>133</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -5428,10 +5433,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5454,16 +5459,16 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5513,7 +5518,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5537,7 +5542,7 @@
         <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>133</v>
+        <v>290</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5545,10 +5550,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5571,16 +5576,16 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>295</v>
+        <v>194</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5630,7 +5635,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5645,27 +5650,27 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>301</v>
+        <v>133</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>302</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5679,7 +5684,7 @@
         <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>20</v>
@@ -5688,16 +5693,16 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5747,7 +5752,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5762,27 +5767,27 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5802,19 +5807,19 @@
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5864,7 +5869,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5873,33 +5878,33 @@
         <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>316</v>
+        <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5913,24 +5918,26 @@
         <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -5979,7 +5986,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5988,7 +5995,7 @@
         <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>101</v>
@@ -6000,21 +6007,21 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>323</v>
+        <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6022,13 +6029,13 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>20</v>
@@ -6037,13 +6044,13 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6094,7 +6101,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6115,21 +6122,21 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6143,22 +6150,22 @@
         <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>193</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>263</v>
+        <v>330</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>264</v>
+        <v>331</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6209,7 +6216,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>196</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6221,7 +6228,7 @@
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>20</v>
@@ -6233,29 +6240,29 @@
         <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>197</v>
+        <v>332</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>20</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -6267,17 +6274,15 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N40" t="s" s="2">
         <v>269</v>
       </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6314,31 +6319,31 @@
         <v>20</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
@@ -6350,7 +6355,7 @@
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6358,42 +6363,42 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>137</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>273</v>
+        <v>139</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6431,31 +6436,31 @@
         <v>20</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>274</v>
+        <v>204</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
@@ -6467,7 +6472,7 @@
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6486,13 +6491,13 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>20</v>
@@ -6501,16 +6506,16 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6536,13 +6541,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -6560,7 +6565,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6569,7 +6574,7 @@
         <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>20</v>
+        <v>277</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>101</v>
@@ -6592,10 +6597,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6618,16 +6623,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6653,13 +6658,13 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -6677,7 +6682,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6701,7 +6706,7 @@
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>288</v>
+        <v>133</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -6709,10 +6714,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6735,16 +6740,16 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6794,7 +6799,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6818,7 +6823,7 @@
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>133</v>
+        <v>290</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -6826,10 +6831,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6843,7 +6848,7 @@
         <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>20</v>
@@ -6852,15 +6857,17 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -6909,7 +6916,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6930,21 +6937,21 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>342</v>
+        <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>344</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6958,22 +6965,22 @@
         <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>193</v>
+        <v>329</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>263</v>
+        <v>342</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7024,7 +7031,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>196</v>
+        <v>341</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7036,7 +7043,7 @@
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -7045,32 +7052,32 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>20</v>
+        <v>344</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>197</v>
+        <v>345</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>20</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7082,17 +7089,15 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N47" t="s" s="2">
         <v>269</v>
       </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7129,31 +7134,31 @@
         <v>20</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -7165,7 +7170,7 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7173,42 +7178,42 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>348</v>
+        <v>137</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>273</v>
+        <v>139</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7246,31 +7251,31 @@
         <v>20</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>274</v>
+        <v>204</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
@@ -7282,7 +7287,7 @@
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7301,13 +7306,13 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>20</v>
@@ -7316,16 +7321,16 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>277</v>
+        <v>350</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7351,13 +7356,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7375,7 +7380,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7384,7 +7389,7 @@
         <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>20</v>
+        <v>277</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>101</v>
@@ -7407,10 +7412,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7433,16 +7438,16 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7468,13 +7473,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7492,7 +7497,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7516,7 +7521,7 @@
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>288</v>
+        <v>133</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7524,10 +7529,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7550,16 +7555,16 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7609,7 +7614,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7633,7 +7638,7 @@
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>133</v>
+        <v>290</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -7641,10 +7646,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7655,7 +7660,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -7664,18 +7669,20 @@
         <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>353</v>
+        <v>194</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7724,19 +7731,19 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
@@ -7748,7 +7755,7 @@
         <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>357</v>
+        <v>133</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -7756,10 +7763,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7770,7 +7777,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -7782,13 +7789,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>193</v>
+        <v>355</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>263</v>
+        <v>356</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7839,19 +7846,19 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>196</v>
+        <v>354</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>20</v>
+        <v>358</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -7863,7 +7870,7 @@
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>197</v>
+        <v>359</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -7871,21 +7878,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -7897,17 +7904,15 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N54" t="s" s="2">
         <v>269</v>
       </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -7956,19 +7961,19 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
@@ -7980,7 +7985,7 @@
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -7988,14 +7993,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>361</v>
+        <v>135</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8008,26 +8013,24 @@
         <v>20</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>362</v>
+        <v>137</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8075,7 +8078,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>365</v>
+        <v>204</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8087,7 +8090,7 @@
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
@@ -8099,7 +8102,7 @@
         <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8107,44 +8110,46 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8168,13 +8173,13 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>370</v>
+        <v>20</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8198,13 +8203,13 @@
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
@@ -8213,10 +8218,10 @@
         <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
@@ -8224,10 +8229,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8238,7 +8243,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>20</v>
@@ -8250,15 +8255,17 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>372</v>
+        <v>157</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8283,13 +8290,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>20</v>
+        <v>371</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8307,16 +8314,16 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>375</v>
+        <v>164</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>101</v>
@@ -8328,10 +8335,10 @@
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>376</v>
+        <v>166</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -8339,10 +8346,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8353,7 +8360,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -8365,17 +8372,15 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>156</v>
+        <v>373</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -8400,13 +8405,13 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>381</v>
+        <v>20</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -8424,16 +8429,16 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>163</v>
+        <v>376</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>101</v>
@@ -8445,10 +8450,10 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>165</v>
+        <v>377</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
@@ -8456,10 +8461,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8470,7 +8475,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -8482,16 +8487,16 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>353</v>
+        <v>157</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>385</v>
+        <v>188</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8517,13 +8522,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>20</v>
+        <v>381</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>20</v>
+        <v>382</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -8541,19 +8546,19 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>386</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
@@ -8562,10 +8567,10 @@
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>387</v>
+        <v>166</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -8573,10 +8578,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8587,7 +8592,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
@@ -8599,15 +8604,17 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>193</v>
+        <v>355</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>263</v>
+        <v>384</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -8656,19 +8663,19 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>196</v>
+        <v>383</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
@@ -8680,7 +8687,7 @@
         <v>20</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>197</v>
+        <v>388</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
@@ -8695,14 +8702,14 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
@@ -8714,17 +8721,15 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N61" t="s" s="2">
         <v>269</v>
       </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -8773,19 +8778,19 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
@@ -8797,7 +8802,7 @@
         <v>20</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
@@ -8812,7 +8817,7 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>361</v>
+        <v>135</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8825,26 +8830,24 @@
         <v>20</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>362</v>
+        <v>137</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>20</v>
       </c>
@@ -8892,7 +8895,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>365</v>
+        <v>204</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8904,7 +8907,7 @@
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
@@ -8916,7 +8919,7 @@
         <v>20</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
@@ -8931,7 +8934,7 @@
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8944,24 +8947,26 @@
         <v>20</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
       </c>
@@ -8985,13 +8990,13 @@
         <v>20</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>394</v>
+        <v>20</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>395</v>
+        <v>20</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>20</v>
@@ -9009,7 +9014,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9018,10 +9023,10 @@
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>20</v>
@@ -9030,10 +9035,10 @@
         <v>20</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>20</v>
@@ -9041,10 +9046,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9064,18 +9069,20 @@
         <v>20</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>397</v>
+        <v>157</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9100,13 +9107,13 @@
         <v>20</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>20</v>
+        <v>395</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>20</v>
+        <v>396</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>20</v>
@@ -9124,7 +9131,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9133,7 +9140,7 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>400</v>
+        <v>164</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>101</v>
@@ -9145,21 +9152,21 @@
         <v>20</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>376</v>
+        <v>166</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>401</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9173,22 +9180,22 @@
         <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K65" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9239,7 +9246,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9248,29 +9255,144 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>20</v>
+        <v>401</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM65" t="s" s="2">
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AL66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AO65" t="s" s="2">
+      <c r="AN66" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AO66" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO65">
+  <autoFilter ref="A1:AO66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9280,7 +9402,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-LTCCondition.xlsx
+++ b/docs/StructureDefinition-LTCCondition.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TWLTC Condition</t>
+    <t>長期照顧－病情、問題或診斷</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T01:35:37+08:00</t>
+    <t>2024-10-23T00:37:08+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>長照機構住民的病情、問題或診斷資料，用以表述發生在長照機構住民的診斷，或需要特別注意或處理的健康問題與病情。</t>
+    <t>此 Profile 說明本 IG 如何進一步定義 FHIR 的 Condition Resource，以呈現長照機構住民的病情、問題或診斷資料。</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-LTCCondition.xlsx
+++ b/docs/StructureDefinition-LTCCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCondition.xlsx
+++ b/docs/StructureDefinition-LTCCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1619,17 +1619,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.65234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.88671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.5703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.4296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.5625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="248.08984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1638,27 +1638,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="165.34375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.5625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="149.6875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.33203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="56.63671875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="222.1015625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="49.63671875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="191.0625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCCondition.xlsx
+++ b/docs/StructureDefinition-LTCCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCondition.xlsx
+++ b/docs/StructureDefinition-LTCCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCondition.xlsx
+++ b/docs/StructureDefinition-LTCCondition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1619,17 +1619,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.4296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.5625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.99609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="248.08984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="235.96484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1638,27 +1638,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="149.6875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.33203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="141.75390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.20703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="49.63671875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="191.0625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="48.5546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="190.4140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCCondition.xlsx
+++ b/docs/StructureDefinition-LTCCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCondition.xlsx
+++ b/docs/StructureDefinition-LTCCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCondition.xlsx
+++ b/docs/StructureDefinition-LTCCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCondition.xlsx
+++ b/docs/StructureDefinition-LTCCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -894,7 +894,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>

--- a/docs/StructureDefinition-LTCCondition.xlsx
+++ b/docs/StructureDefinition-LTCCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCondition.xlsx
+++ b/docs/StructureDefinition-LTCCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCondition.xlsx
+++ b/docs/StructureDefinition-LTCCondition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
